--- a/data/VGPs_NAM/8.xlsx
+++ b/data/VGPs_NAM/8.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgowPEotEM/1SUx6YzW0qEVL0QE2A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miV6zkmHVeidpiO2dw3ZVdeXjd3GQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
   <si>
     <t>Study level data</t>
   </si>
@@ -83,6 +83,9 @@
     <t>age</t>
   </si>
   <si>
+    <t>2_sigma</t>
+  </si>
+  <si>
     <t>min_age</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>Q</t>
   </si>
   <si>
+    <t>kept_by_auth</t>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -110,10 +116,16 @@
     <t>Trans-Mexican Volcanic Belt</t>
   </si>
   <si>
+    <t>uniform</t>
+  </si>
+  <si>
     <t>volcanic</t>
   </si>
   <si>
     <t>Mejia et al. (2005)</t>
+  </si>
+  <si>
+    <t>7 Ar/Ar ages from 1.28±0.54 to 4.14±0.37 Ma</t>
   </si>
   <si>
     <t>Site level data</t>
@@ -147,6 +159,12 @@
   <si>
     <t>VGP_lon</t>
   </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -177,23 +195,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,44 +208,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border/>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,13 +234,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -268,45 +251,27 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -523,7 +488,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="28" width="9.38"/>
+    <col customWidth="1" min="1" max="21" width="9.38"/>
+    <col customWidth="1" min="22" max="22" width="13.13"/>
+    <col customWidth="1" min="23" max="30" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -577,7 +544,7 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -595,18 +562,24 @@
       <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6">
         <v>19.1</v>
       </c>
       <c r="C3" s="6">
@@ -627,47 +600,60 @@
       <c r="H3" s="7">
         <v>6.2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>-89.2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>178.3</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="7">
         <v>59.0</v>
       </c>
       <c r="L3" s="7">
         <v>5.2</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <v>5.2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="7">
         <v>5.2</v>
       </c>
-      <c r="O3" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="R3" s="10">
+        <v>4.14</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="11">
         <v>5.0</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="2"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -681,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -693,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -716,7 +702,7 @@
       <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -734,690 +720,874 @@
       <c r="U6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>2.0</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>22.837</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>-99.878</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>5.0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>346.7</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>23.5</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>5.0</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>37.0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <v>75.5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>136.2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <v>10.0</v>
       </c>
-      <c r="N7" s="17">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="15">
         <v>25.7</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="S7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="2"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>22.66</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>-99.903</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>51.0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>46.8</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>25.2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>10.0</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>13.0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <v>44.8</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>353.5</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <v>68.0</v>
       </c>
-      <c r="N8" s="17">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="15">
         <v>11.2</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="S8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y8" s="2"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="21">
+      <c r="A9" s="15">
         <v>6.0</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>22.82</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>-101.914</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>8.0</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>189.0</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <v>-37.1</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>396.0</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <v>2.8</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>-81.3</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <v>180.3</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>407.0</v>
       </c>
-      <c r="N9" s="18">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="15">
         <v>2.8</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="15">
         <v>4.14</v>
       </c>
-      <c r="P9" s="18">
-        <v>3.77</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>4.51</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y9" s="2"/>
+      <c r="P9" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>8.0</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>18.976</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>-99.648</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>8.0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>187.5</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>-36.4</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>134.0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>4.8</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>-82.9</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <v>158.1</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="15">
         <v>148.0</v>
       </c>
-      <c r="N10" s="18">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="15">
         <v>4.6</v>
       </c>
-      <c r="S10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>26</v>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>9.0</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>19.309</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>-99.305</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>7.0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>182.8</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <v>-33.7</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <v>196.0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>4.3</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <v>-87.2</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <v>187.3</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <v>172.0</v>
       </c>
-      <c r="N11" s="18">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="15">
         <v>4.6</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="15">
         <v>1.28</v>
       </c>
-      <c r="P11" s="18">
-        <v>0.74</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>1.82</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>26</v>
+      <c r="P11" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>19.322</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>-99.301</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>5.0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>184.5</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <v>-37.7</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>291.0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>4.5</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>-85.3</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>146.8</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>333.0</v>
       </c>
-      <c r="N12" s="18">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="15">
         <v>4.2</v>
       </c>
-      <c r="S12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>26</v>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="16"/>
+      <c r="V12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>11.0</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>19.291</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>-99.261</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>8.0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>9.9</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <v>29.4</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <v>148.0</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="15">
         <v>4.6</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>80.0</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>9.6</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>195.0</v>
       </c>
-      <c r="N13" s="18">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="15">
         <v>4.0</v>
       </c>
-      <c r="S13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>26</v>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="16"/>
+      <c r="V13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>12.0</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>19.279</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>-99.278</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>10.0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>161.2</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>-43.1</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>153.0</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>3.9</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>-71.8</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>13.0</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>134.0</v>
       </c>
-      <c r="N14" s="18">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="15">
         <v>4.2</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="15">
         <v>1.43</v>
       </c>
-      <c r="P14" s="18">
-        <v>1.26</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>26</v>
+      <c r="P14" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="16"/>
+      <c r="V14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>13.0</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>19.267</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>-99.292</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>8.0</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>166.9</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>-47.8</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <v>230.0</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <v>3.7</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <v>-74.6</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>32.2</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>170.0</v>
       </c>
-      <c r="N15" s="18">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="15">
         <v>4.3</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="15">
         <v>2.29</v>
       </c>
-      <c r="P15" s="18">
-        <v>1.71</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>2.87</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>26</v>
+      <c r="P15" s="15">
+        <v>0.58</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="16"/>
+      <c r="V15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>14.0</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>19.199</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>-99.25</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>6.0</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>185.7</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>-42.1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>270.0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>4.1</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>-82.6</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>125.1</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>297.0</v>
       </c>
-      <c r="N16" s="18">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="15">
         <v>3.9</v>
       </c>
-      <c r="S16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>26</v>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="16"/>
+      <c r="V16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>15.0</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="15">
         <v>19.23</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>-99.272</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>3.0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>182.2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>-47.7</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>2308.0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>2.6</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>-80.2</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>92.4</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>1759.0</v>
       </c>
-      <c r="N17" s="18">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="15">
         <v>2.9</v>
       </c>
-      <c r="S17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>26</v>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="16"/>
+      <c r="V17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>18.0</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="15">
         <v>19.168</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>-99.805</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>3.0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>177.7</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>-47.7</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <v>968.0</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>2.5</v>
       </c>
-      <c r="I18" s="18">
-        <v>-80.2</v>
-      </c>
-      <c r="J18" s="18">
-        <v>92.4</v>
-      </c>
-      <c r="K18" s="18">
-        <v>1759.0</v>
-      </c>
-      <c r="N18" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>26</v>
+      <c r="I18" s="15">
+        <v>-79.1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>272.6</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1129.0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="15">
+        <v>2.3</v>
+      </c>
+      <c r="O18" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="16"/>
+      <c r="V18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>19.0</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="15">
         <v>19.801</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>-99.375</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>6.0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="15">
         <v>186.1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <v>-24.4</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="15">
         <v>503.0</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>3.0</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>-81.2</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="15">
         <v>217.5</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>638.0</v>
       </c>
-      <c r="N19" s="18">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="15">
         <v>2.7</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="15">
         <v>1.69</v>
       </c>
-      <c r="P19" s="18">
-        <v>1.48</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>1.9</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>26</v>
+      <c r="P19" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="16"/>
+      <c r="V19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>20.0</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>19.339</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>-99.362</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>7.0</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>182.6</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>-41.3</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="15">
         <v>307.0</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="15">
         <v>3.4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="15">
         <v>-84.9</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="15">
         <v>108.6</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="15">
         <v>428.0</v>
       </c>
-      <c r="N20" s="18">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="15">
         <v>2.9</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="15">
         <v>2.61</v>
       </c>
-      <c r="P20" s="18">
-        <v>2.09</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>3.13</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>26</v>
+      <c r="P20" s="15">
+        <v>0.52</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
